--- a/2022_09_11_query/RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021.xlsx
+++ b/2022_09_11_query/RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021.xlsx
@@ -345,14 +345,88 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>RESOLUÇÃO</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>EMPRESA</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>AUTORIZAÇÃO</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>MARCA</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>PROCESSO</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>REGISTRO</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>VENDA E EMPREGO</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>VENCIMENTO</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>APRESENTAÇÃO</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>VALIDADE</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>CATEGORIA</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>ASSUNTO
+PETIÇÃO</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>EXPEDIENTE E PETIÇÃO</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>VERSÃO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/2022_09_11_query/RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021.xlsx
+++ b/2022_09_11_query/RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,6 +426,7149 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AJX COMERCIO LTDA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.09132-9</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WATER CLOR MULTI</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.165169/2021-98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.9132.0001.001-3</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WATER CLOR MULTI + BALDE + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205045 DESINFETANTE PARA PISCINAS</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ALPHA CENTAURO QUIMICA LTDA ME</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.06485-0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ALPHA DESINCRUST</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.174264/2021-82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.6485.0026.001-9</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ÚNICA + FRASCO DE PLASTICO OPACO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ALPHA CENTAURO QUIMICA LTDA ME</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.06485-0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ALPHA DESINCRUST</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.174264/2021-82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.6485.0026.002-7</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ÚNICA + GALAO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ALPHA CENTAURO QUIMICA LTDA ME</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.06485-0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ALPHA DESINCRUST</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.174264/2021-82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.6485.0026.003-5</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ÚNICA + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ASA INDUSTRIA E COMERCIO LTDA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.02109-6</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LAVA ROUPAS INVICTO</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.891672/2021-01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.2109.0046.001-2</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SUPERAÇÃO + CAIXA PAPEL CARTAO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222047 SANITIZANTE PARA TECIDOS E ROUPAS</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ASA INDUSTRIA E COMERCIO LTDA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.02109-6</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LAVA ROUPAS INVICTO</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.891672/2021-01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.2109.0046.002-0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SUPERAÇÃO + SACHET + SACO PLASTICO</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222047 SANITIZANTE PARA TECIDOS E ROUPAS</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ASA INDUSTRIA E COMERCIO LTDA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.02109-6</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LAVA ROUPAS INVICTO</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.891672/2021-01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.2109.0046.003-9</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SUPERAÇÃO + SACHET + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222047 SANITIZANTE PARA TECIDOS E ROUPAS</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ASA INDUSTRIA E COMERCIO LTDA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.02109-6</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LAVA ROUPAS INVICTO</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.891672/2021-01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.2109.0046.004-7</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LAVANDA + SACHET + SACO PLASTICO</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222047 SANITIZANTE PARA TECIDOS E ROUPAS</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ASA INDUSTRIA E COMERCIO LTDA</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.02109-6</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LAVA ROUPAS INVICTO</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.891672/2021-01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.2109.0046.005-5</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LAVANDA + SACHET + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222047 SANITIZANTE PARA TECIDOS E ROUPAS</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ASA INDUSTRIA E COMERCIO LTDA</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.02109-6</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LAVA ROUPAS INVICTO</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.891672/2021-01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.2109.0046.006-3</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LAVANDA + CAIXA PAPEL CARTAO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222047 SANITIZANTE PARA TECIDOS E ROUPAS</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ASA INDUSTRIA E COMERCIO LTDA</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.02109-6</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LAVA ROUPAS INVICTO</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.891672/2021-01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.2109.0046.007-1</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COCO + SACHET + SACO PLASTICO</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222047 SANITIZANTE PARA TECIDOS E ROUPAS</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ASA INDUSTRIA E COMERCIO LTDA</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.02109-6</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LAVA ROUPAS INVICTO</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.891672/2021-01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.2109.0046.008-1</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COCO + SACHET + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222047 SANITIZANTE PARA TECIDOS E ROUPAS</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ASA INDUSTRIA E COMERCIO LTDA</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.02109-6</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LAVA ROUPAS INVICTO</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.891672/2021-01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.2109.0046.009-8</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COCO + CAIXA PAPEL CARTAO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222047 SANITIZANTE PARA TECIDOS E ROUPAS</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ATP CLEAN AMERICA LATINA INDUSTRIA E COMÉRCIO DE SANEANTES LTDA</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.10109-1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MAXIFORM</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.897504/2021-11</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0109.0002.001-1</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ALGODÃO + LATA AEROSSOL + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ATP CLEAN AMERICA LATINA INDUSTRIA E COMÉRCIO DE SANEANTES LTDA</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.10109-1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MAXIFORM</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.897504/2021-11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0109.0002.002-8</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LAVANDA + LATA AEROSSOL + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ATP CLEAN AMERICA LATINA INDUSTRIA E COMÉRCIO DE SANEANTES LTDA</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.10109-1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MAXIFORM</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.897504/2021-11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0109.0002.003-6</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BAMBOO + LATA AEROSSOL + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ATREVIDA COMERCIO DE PRODUTOS DE LIMPEZA LTDA-ME</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.01635-6</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PEDRA SANITÁRIA PUBLIC 25G</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.711272/2021-12</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.1635.0003.001-5</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LAVANDA + FILME DE POLIPROPILENO + CAIXA DE CARTOLINA</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12 Meses</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3103021 DESODORIZANTE PARA APARELHOS SANITÁRIOS</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ATREVIDA COMERCIO DE PRODUTOS DE LIMPEZA LTDA-ME</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.01635-6</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PEDRA SANITÁRIA PUBLIC 25G</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.711272/2021-12</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.1635.0003.002-3</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MARINE + FILME DE POLIPROPILENO + CAIXA DE CARTOLINA</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12 Meses</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3103021 DESODORIZANTE PARA APARELHOS SANITÁRIOS</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ATREVIDA COMERCIO DE PRODUTOS DE LIMPEZA LTDA-ME</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.01635-6</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PEDRA SANITÁRIA PUBLIC 25G</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.711272/2021-12</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.1635.0003.003-1</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TUTTI FRUTTI + FILME DE POLIPROPILENO + CAIXA DE CARTOLINA</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12 Meses</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3103021 DESODORIZANTE PARA APARELHOS SANITÁRIOS</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ATREVIDA COMERCIO DE PRODUTOS DE LIMPEZA LTDA-ME</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.01635-6</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PEDRA SANITÁRIA PUBLIC 25G</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.711272/2021-12</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.1635.0003.004-1</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BAMBU + FILME DE POLIPROPILENO + CAIXA DE CARTOLINA</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12 Meses</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3103021 DESODORIZANTE PARA APARELHOS SANITÁRIOS</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BEQUISA INDÚSTRIA QUÍMICA DO BRASIL LTDA</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.01606-6</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> F3 FULMIPRAG FENDAS E FRESTAS</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.135234/2007-01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.1606.0081.001-8</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 07/2027</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LATA AEROSSOL</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2 Ano(s)</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3206025 INSETICIDA PARA EMPRESAS ESPECIALIZADAS</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> F3 FULMIPRAG FENDAS E FRESTAS</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.135234/2007-01</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.1606.0081.001-8</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 07/2027</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LATA AEROSSOL</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2 Ano(s)</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3206025 INSETICIDA PARA EMPRESAS ESPECIALIZADAS</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 396 REG. SANEANTES - Alteração (Inclusão Ou Exclusão) de Fabricante</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BLOCKMOLL</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.171789/2013-74</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.1606.0090.001-7</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 06/2028</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SACHET</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2 Ano(s)</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3209016 MOLUSCICIDA</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BLOCKMOLL</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.171789/2013-74</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.1606.0090.002-5</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 06/2028</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SACO PLASTICO</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2 Ano(s)</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3209016 MOLUSCICIDA</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BLOCKMOLL</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.171789/2013-74</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.1606.0090.003-3</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 06/2028</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SACO</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2 Ano(s)</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3209016 MOLUSCICIDA</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BIOCLEAN - COMÉRCIO E INDÚSTRIA DE PRODUTOS DE LIMPEZA LTDA</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.04186-4</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Alcaclean</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.879027/2021-10</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.4186.0020.001-3</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Alcaclean + BOMBONA PLASTICA + FILME PLASTICO</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12 Meses</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Biomaxx Industria e comercio Ltda</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.09382-2</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Detergente clorado gel Klean Clor</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.174269/2021-13</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.9382.0006.001-6</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Detergente clorado gel Klean Clor + BOMBONA PLASTICA OPACA + FILME DE POLIETILENO</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 Meses</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BRAZ CHEMICAL IND. E COM. DE PRODUTOS DE LIMPEZA LTDA EPP</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.10511-8</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ÁGUA SANITÁRIA ÚNICO</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.885128/2021-11</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0511.0001.001-7</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 Meses</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BRAZ CHEMICAL IND. E COM. DE PRODUTOS DE LIMPEZA LTDA EPP</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.10511-8</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ÁGUA SANITÁRIA ÚNICO</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.885128/2021-11</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0511.0001.002-5</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GALAO PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 Meses</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BRAZ CHEMICAL IND. E COM. DE PRODUTOS DE LIMPEZA LTDA EPP</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.10511-8</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ÁGUA SANITÁRIA ÚNICO</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.885128/2021-11</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0511.0001.003-3</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 Meses</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BRAZIL QUÍMICA - INDUSTRIA QUÍMICA LTDA.</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.02856-6</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EXTERMINEITOR BLOCO</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.879141/2021-31</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.2856.0035.001-9</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FILME DE POLIETILENO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3207013 RATICIDA DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CALLAMARYS INDUSTRIA E COMERCIO DE COSMETICOS E SANEANTES LTDA</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.05881-1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ÁLCOOL TUPI 70° INPM</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.541605/2014-28</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.5881.0001.005-0</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/2029</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO PLASTICO TRANSLUCIDO 500ML+CAIXA DE PAPELÃO</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHEMIE SAÚDE AMBIENTAL LTDA</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.09286-1</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HIPOCLORITO DE CÁLCIO HYPO CLEAR</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.866893/2021-32</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.9286.0013.001-4</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1 KG + SACO PLASTICO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205045 DESINFETANTE PARA PISCINAS</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHEMIE SAÚDE AMBIENTAL LTDA</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.09286-1</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HIPOCLORITO DE CÁLCIO HYPO CLEAR</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.866893/2021-32</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.9286.0013.002-2</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7 KG + BALDE PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205045 DESINFETANTE PARA PISCINAS</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHEMIE SAÚDE AMBIENTAL LTDA</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.09286-1</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HIPOCLORITO DE CÁLCIO HYPO CLEAR</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.866893/2021-32</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.9286.0013.003-0</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 10 KG + BALDE PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205045 DESINFETANTE PARA PISCINAS</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHEMIE SAÚDE AMBIENTAL LTDA</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.09286-1</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HIPOCLORITO DE CÁLCIO HYPO CLEAR</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.866893/2021-32</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.9286.0013.004-9</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 40 KG + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205045 DESINFETANTE PARA PISCINAS</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHEMIE SAÚDE AMBIENTAL LTDA</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.09286-1</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HIPOCLORITO DE CÁLCIO HYPO CLEAR</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.866893/2021-32</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.9286.0013.005-7</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 45 KG + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205045 DESINFETANTE PARA PISCINAS</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHEMIE SAÚDE AMBIENTAL LTDA</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.09286-1</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HIPOCLORITO DE CÁLCIO HYPO CLEAR</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.866893/2021-32</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.9286.0013.006-5</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 50 KG + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205045 DESINFETANTE PARA PISCINAS</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Clareza Produtos de limpeza Ltda</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.05520-3</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DESENGRAXANTE CL-10 CLAREZA</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.111595/2020-21</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.5520.0005.001-7</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 06/2030</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLASTICA</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12 Meses</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3103084 DESENGRAXANTE</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DESENGRAXANTE CL-10 CLAREZA</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.111595/2020-21</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.5520.0005.002-5</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 06/2030</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLASTICA</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12 Meses</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3103084 DESENGRAXANTE</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DESENGRAXANTE CL-10 CLAREZA</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.111595/2020-21</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.5520.0005.003-3</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 06/2030</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLASTICA</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12 Meses</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3103084 DESENGRAXANTE</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DIVERSEY BRASIL INDUSTRIA QUIMICA LTDA</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.02661-1</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Diverclean Xtreme Acid</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.922891/2021-31</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.2661.0303.001-1</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Versão única + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3203018 DETERGENTE PROFISSIONAL DESINCRUSTANTE ÁCIDO</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DIVERSEY BRASIL INDUSTRIA QUIMICA LTDA</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.02661-1</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Diverclean Xtreme Acid</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.922891/2021-31</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.2661.0303.002-8</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Versão única + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3203018 DETERGENTE PROFISSIONAL DESINCRUSTANTE ÁCIDO</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DIVERSEY BRASIL INDUSTRIA QUIMICA LTDA</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.02661-1</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Diverclean Xtreme Acid</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.922891/2021-31</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.2661.0303.003-6</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Versão única + ACONDICIONAMENTO NAO PREVISTO NA TABELA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3203018 DETERGENTE PROFISSIONAL DESINCRUSTANTE ÁCIDO</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EUROMARKET COMÉRCIO, IMPORTAÇÃO E EXPORTAÇÃO LTDA EPP</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.02216-5</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SANI-CLOTH HB PDI</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.021856/00-51</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.2216.0001.001-7</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/2005</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ENVELOPE DE ALUMINIO E POLIETILENO</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 36 Meses</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FANNY SILVANA DA SILVA PETIT LTDA - ME</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.03964-5</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Água Sanitária Petit</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.897597/2021-83</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.3964.0006.001-9</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 Meses</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FANNY SILVANA DA SILVA PETIT LTDA - ME</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.03964-5</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Água Sanitária Petit</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.897597/2021-83</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.3964.0006.002-7</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 Meses</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FANNY SILVANA DA SILVA PETIT LTDA - ME</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.03964-5</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Água Sanitária Petit</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.897597/2021-83</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.3964.0006.003-5</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 Meses</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FANNY SILVANA DA SILVA PETIT LTDA - ME</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.03964-5</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Água Sanitária Petit</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.897597/2021-83</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.3964.0006.004-3</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 Meses</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FANNY SILVANA DA SILVA PETIT LTDA - ME</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.03964-5</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Água Sanitária Petit</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.897597/2021-83</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.3964.0006.005-1</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 Meses</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HIGEX - INDÚSTRIA E COMÉRCIO DE PRODUTOS SANEANTES LTDA - EPP</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.04020-0</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HIG DRY WIPES</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.190825/2021-91</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.4020.0041.001-0</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HIG DRY WIPES + POTE DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12 Meses</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205053 DESINFETANTE PARA INDÚSTRIA ALIMENTÍCIA E AFINS</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HIGEX - INDÚSTRIA E COMÉRCIO DE PRODUTOS SANEANTES LTDA - EPP</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.04020-0</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HIG DRY WIPES</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.190825/2021-91</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.4020.0041.002-9</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HIG DRY WIPES + BALDE PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12 Meses</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205053 DESINFETANTE PARA INDÚSTRIA ALIMENTÍCIA E AFINS</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HIGEX - INDÚSTRIA E COMÉRCIO DE PRODUTOS SANEANTES LTDA - EPP</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.04020-0</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HIG DRY WIPES</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.190825/2021-91</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.4020.0041.003-7</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HIG DRY WIPES + BALDE PLASTICO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12 Meses</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205053 DESINFETANTE PARA INDÚSTRIA ALIMENTÍCIA E AFINS</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Higiemaster Sul Industria e Comércio de Saneantes - Eireli-ME</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.06960-0</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TOP LAV CLOR</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.023261/2019-67</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.6960.0010.001-2</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 05/2024</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLASTICA TRANSPARENTE + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12 Meses</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TOP LAV</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.023264/2019-09</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.6960.0011.001-8</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 05/2024</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLASTICA TRANSPARENTE + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12 Meses</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IDEAL QUIMICA INDUSTRIA DE DETERGENTES LTDA - ME</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.04309-0</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IDEALCLOR</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.711489/2021-22</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.4309.0009.001-8</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NÃO APRESENTA + BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 Meses</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222046 SANITIZANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IDEAL QUIMICA INDUSTRIA DE DETERGENTES LTDA - ME</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.04309-0</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IDEALCLOR</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.711489/2021-22</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.4309.0009.002-6</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NÃO APRESENTA + BOMBONA PLASTICA OPACA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 Meses</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222046 SANITIZANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INDEBA INDÚSTRIA E COMÉRCIO LTDA</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.00415-1</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TEXSPAR PL</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.244658/2010-01</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0415.0200.001-9</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 08/2025</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BALDE PLASTICO</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4300213 DETERGENTE PARA USO ESPECÍFICO</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TEXSPAR PL</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.244658/2010-01</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0415.0200.002-7</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 08/2025</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLASTICA</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4300213 DETERGENTE PARA USO ESPECÍFICO</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LETAH MAX</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.397586/2013-17</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0415.0213.001-1</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 09/2028</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BALDE</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LETAH MAX</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.397586/2013-17</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0415.0213.002-8</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 09/2028</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLASTICA + BANDEJA DE PAPELAO COM INVOLUCRO PLASTICO</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INDÚSTRIA DE PRODUTOS DE LIMPEZA D SUPER LTDA</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.03581-1</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DECAPAN LM 220 SUPER</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.180828/2019-00</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.3581.0035.001-9</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 05/2029</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + ACONDICIONAMENTO NAO PREVISTO NA TABELA</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12 Meses</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 396 REG. SANEANTES - Alteração (Inclusão Ou Exclusão) de Fabricante</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DECAPAN LIMPA PISOS SUPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.416124/2020-14</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.3581.0042.001-7</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/2030</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + ACONDICIONAMENTO NAO PREVISTO NA TABELA</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12 Meses</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3103055 DETERGENTE LIMPA PISOS</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 396 REG. SANEANTES - Alteração (Inclusão Ou Exclusão) de Fabricante</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INNOVATIVE WATER CARE INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS BRASIL LTDA.</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.00388-7</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INDAGARD HLD</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.767623/2014-52</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0388.0054.001-1</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 03/2025</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4300212 DESINFETANTE DE ALTO NÍVEL</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INDAGARD HLD</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.767623/2014-52</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0388.0054.002-1</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 03/2025</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GALAO PLASTICO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4300212 DESINFETANTE DE ALTO NÍVEL</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INSETIMAX INDUSTRIA QUIMICA EIRELI</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.02781-6</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FORMICIDA - FORMI HOUSE</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.020099/2004-49</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.2781.0006.001-9</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 06/2029</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SERINGA PLASTICA</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3206017 INSETICIDA DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 330 REG. SANEANTES - Modificação de Fórmula de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FORMIX</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.076951/2014-03</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.2781.0047.001-2</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 05/2029</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SERINGA PLASTICA + CAIXA DE CARTOLINA</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2 Ano(s)</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3206017 INSETICIDA DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 330 REG. SANEANTES - Modificação de Fórmula de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FORMIX</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.076951/2014-03</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.2781.0047.002-0</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 05/2029</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SACHET + CAIXA DE CARTOLINA</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2 Ano(s)</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3206017 INSETICIDA DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 330 REG. SANEANTES - Modificação de Fórmula de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> D´FIM GEL FORMICIDA</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.663046/2014-34</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.2781.0051.001-4</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12/2029</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SERINGA DOSADORA + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2 Ano(s)</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3206025 INSETICIDA PARA EMPRESAS ESPECIALIZADAS</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 330 REG. SANEANTES - Modificação de Fórmula de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INTERFINA AGROQUIMICA LTDA-EPP</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.05685-4</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BIFENTHRINE SPRAY</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.365890/2017-86</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.5685.0026.001-7</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 08/2027</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO PLÁSTICO OPACO COM GATILHO + CAIXA PAPEL CARTAO</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2 Ano(s)</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3206017 INSETICIDA DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LAZA BIOTECNOLOGIA DO BRASIL LTDA.</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.04549-9</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACQUA GENERA</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.600810/2019-20</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.4549.0013.001-7</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2030</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLASTICA</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2 Meses</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3211051 DESINFETANTE DE ÁGUA PARA CONSUMO HUMANO</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LAZ CLORO</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.600825/2019-98</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.4549.0012.001-1</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2030</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLASTICA</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2 Meses</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3211051 DESINFETANTE DE ÁGUA PARA CONSUMO HUMANO</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACQUA PLUS</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.654248/2019-54</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.4549.0014.001-2</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2030</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLASTICA</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2 Meses</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3211051 DESINFETANTE DE ÁGUA PARA CONSUMO HUMANO</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LIMA &amp; PERGHER INDÚSTRIA E COMÉRCIO S/A</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.01282-6</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AGUA SANITARIA SMART</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.121046/2007-97</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.1282.0303.001-2</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 07/2027</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12 Meses</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 392 REG. SANEANTES - Novo Prazo de Validade de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AGUA SANITARIA SMART</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.121046/2007-97</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.1282.0303.002-0</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 07/2027</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLASTICA</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12 Meses</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 392 REG. SANEANTES - Novo Prazo de Validade de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ÁGUA SANITÁRIA TUFF</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.782809/2018-23</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.1282.0059.001-7</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 03/2029</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12 Meses</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 392 REG. SANEANTES - Novo Prazo de Validade de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ÁGUA SANITÁRIA TUFF</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.782809/2018-23</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.1282.0059.002-5</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 03/2029</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12 Meses</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 392 REG. SANEANTES - Novo Prazo de Validade de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ÁGUA SANITÁRIA TUFF</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.782809/2018-23</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.1282.0059.003-3</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 03/2029</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + ACONDICIONAMENTO NAO PREVISTO NA TABELA</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12 Meses</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 392 REG. SANEANTES - Novo Prazo de Validade de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LIMPIS INDUSTRIAL LTDA</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.02183-0</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ÁLCOOL 70º INPM CRUZEIRO</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.444189/2013-97</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.2183.0025.001-2</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 08/2028</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + FILME PLASTICO</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2 Ano(s)</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 396 REG. SANEANTES - Alteração (Inclusão Ou Exclusão) de Fabricante</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ÁLCOOL 70º INPM CRUZEIRO</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.444189/2013-97</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.2183.0025.002-0</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 08/2028</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSLUCIDO + FILME PLASTICO</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2 Ano(s)</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 396 REG. SANEANTES - Alteração (Inclusão Ou Exclusão) de Fabricante</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ÁLCOOL 70º INPM CRUZEIRO</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.444189/2013-97</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 000</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr"/>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GALÃO PLÁSTICO + FILME PLÁSTICO</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 396 REG. SANEANTES - Alteração (Inclusão Ou Exclusão) de Fabricante</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> L.M. INDÚSTRIA, COMÉRCIO, IMPORTAÇÃO E EXPORTAÇÃO LTDA</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.01540-7</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ÁGUA SANITÁRIA POLITRIZ</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.122080/2015-15</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.1540.0027.001-8</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 06/2026</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12 Meses</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ÁGUA SANITÁRIA POLITRIZ</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.122080/2015-15</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.1540.0027.002-6</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 06/2026</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12 Meses</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ÁGUA SANITÁRIA POLITRIZ</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.122080/2015-15</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.1540.0027.003-4</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 06/2026</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLASTICA + ACONDICIONAMENTO NAO PREVISTO NA TABELA</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12 Meses</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ÁGUA SANITÁRIA POLITRIZ</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.122080/2015-15</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.1540.0027.004-2</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 06/2026</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO PLÁSTICO OPACO (PET) +CAIXA DE PAPELÃO</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 06 Meses</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MACKERDUZ INDUSTRIA DE PRODUTOS DE LIMPEZA LTDA</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.02769-6</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TIRA MOFO E LIMO - ESFRE BOM</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.291663/2018-10</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.2769.0010.001-9</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11/2028</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO SPRAY + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 392 REG. SANEANTES - Novo Prazo de Validade de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MEGA MIX INDUSTRIA E COMERCIO LTDA</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.04479-7</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LIMPA PEDRAS MIX PLUS</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.190749/2021-13</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.4479.0006.001-6</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LIMPA PEDRAS MIX PLUS SUPER + FRASCO + FILME PLASTICO</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MEGA MIX INDUSTRIA E COMERCIO LTDA</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.04479-7</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LIMPA PEDRAS MIX PLUS</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.190749/2021-13</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.4479.0006.002-4</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LIMPA PEDRAS MIX PLUS STONE + FRASCO + FILME PLASTICO</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MEGA MIX INDUSTRIA E COMERCIO LTDA</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.04479-7</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LIMPA PEDRAS MIX PLUS</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.190749/2021-13</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.4479.0006.003-2</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LIMPA PEDRAS MIX PLUS + FRASCO + FILME PLASTICO</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NEW CLEAN IND. E COM. DE PRODUTOS DE HIGIENE E LIMPEZA LTDA</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.03867-1</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PREMIUM CLOR ALVEJANTE/DESINFETANTE PÓ</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.885106/2021-51</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.3867.0012.001-1</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> . + BALDE PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12 Meses</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222050 DESINFETANTE PARA ROUPAS HOSPITALARES</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Oleak Indústria e Comércio Ltda</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.01003-2</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SCOTT HIGIENIZADOR DE ASSENTOS</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.584880/2012-91</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.1003.0099.001-7</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 07/2028</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SACO PLASTICO</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.08029-8</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MASTER CLEAN</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.465788/2020-07</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.8029.0005.001-6</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 03/2031</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 Meses</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MASTER CLEAN</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.465788/2020-07</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.8029.0005.002-4</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 03/2031</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GALAO PLASTICO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 Meses</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MASTER CLEAN</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.583963/2020-39</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.8029.0006.001-1</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 03/2031</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ALGAS MARINHAS + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MASTER CLEAN</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.583963/2020-39</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.8029.0006.002-1</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 03/2031</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ALGAS MARINHAS + GALAO PLASTICO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MASTER CLEAN</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.583963/2020-39</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.8029.0006.003-8</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 03/2031</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EUCALIPTO + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MASTER CLEAN</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.583963/2020-39</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.8029.0006.004-6</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 03/2031</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EUCALIPTO + GALAO PLASTICO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MASTER CLEAN</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.583963/2020-39</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.8029.0006.005-4</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 03/2031</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LAVANDA + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MASTER CLEAN</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.583963/2020-39</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.8029.0006.006-2</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 03/2031</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LAVANDA + GALAO PLASTICO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MASTER CLEAN</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.583963/2020-39</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.8029.0006.007-0</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 03/2031</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PINHO + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MASTER CLEAN</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.583963/2020-39</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.8029.0006.008-9</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 03/2031</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PINHO + GALAO PLASTICO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MASTER CLEAN</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.583963/2020-39</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.8029.0006.009-7</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 03/2031</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> STYLLUS + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MASTER CLEAN</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.583963/2020-39</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.8029.0006.010-0</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 03/2031</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> STYLLUS + GALAO PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MASTER CLEAN</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.583963/2020-39</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.8029.0006.011-9</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 03/2031</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VIOLETA + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MASTER CLEAN</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.583963/2020-39</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.8029.0006.012-7</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 03/2031</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VIOLETA + GALAO PLASTICO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODAN - DETERGENTES SANEANTES E ADITIVOS ESPECIAIS EIRELI</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.10526-1</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ÁGUA SANITÁRIA - PRODAN</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.922841/2021-53</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0526.0001.001-4</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 Meses</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> QUIMIWAY INDÚSTRIA QUIMICA LTDA</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.04819-1</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NEENWAY</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.180015/2021-26</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.4819.0140.001-5</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO SPRAY + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222019 JARDINAGEM AMADORA</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> QUIMIWAY INDÚSTRIA QUIMICA LTDA</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.04819-1</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NEENWAY</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.180015/2021-26</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.4819.0140.002-3</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO PLÁSTICO OPACO COM GATILHO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222019 JARDINAGEM AMADORA</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> QUIMIWAY INDÚSTRIA QUIMICA LTDA</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.04819-1</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NEENWAY</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.180015/2021-26</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.4819.0140.003-1</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222019 JARDINAGEM AMADORA</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SENIR EMBALAGENS LTDA</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.03193-1</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CLORO GEL BARBAREX</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.269699/2018-17</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.3193.0033.001-0</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 08/2028</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 Meses</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CLORO GEL BARBAREX</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.269699/2018-17</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.3193.0033.002-9</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 08/2028</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLASTICA OPACA</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 Meses</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CLORO GEL BARBAREX</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.269699/2018-17</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.3193.0033.003-7</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 08/2028</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TAMBOR PLASTICO OPACO</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 Meses</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UNICLEAN QUÍMICA INDUSTRIAL DO BRASIL LTDA</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.03557-0</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACIDCLEAN 570</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.190725/2021-64</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.3557.0049.001-1</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACIDCLEAN 570 + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UNICLEAN QUÍMICA INDUSTRIAL DO BRASIL LTDA</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.03557-0</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACIDCLEAN 570</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.190725/2021-64</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.3557.0049.002-1</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACIDCLEAN 570 + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UNICLEAN QUÍMICA INDUSTRIAL DO BRASIL LTDA</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.03557-0</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACIDCLEAN 570</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.190725/2021-64</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.3557.0049.003-8</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACIDCLEAN 570 + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UNICLEAN QUÍMICA INDUSTRIAL DO BRASIL LTDA</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.03557-0</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ALCACLEAN 400</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.190731/2021-11</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.3557.0048.001-6</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ALCACLEAN 400 + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UNICLEAN QUÍMICA INDUSTRIAL DO BRASIL LTDA</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.03557-0</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ALCACLEAN 400</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.190731/2021-11</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.3557.0048.002-4</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ALCACLEAN 400 + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UNICLEAN QUÍMICA INDUSTRIAL DO BRASIL LTDA</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.03557-0</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ALCACLEAN 400</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.190731/2021-11</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.3557.0048.003-2</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ALCACLEAN 400 + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
